--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Min.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.45568428466758E-19</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.894592024678582E-09</v>
+        <v>2.72967848032444E-06</v>
       </c>
       <c r="D2">
-        <v>0.007019255690660976</v>
+        <v>0.006425129170340081</v>
       </c>
       <c r="E2">
-        <v>0.009034683182445062</v>
+        <v>0.009981179422717998</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.573017879546552E-09</v>
+        <v>3.676266793030401E-12</v>
       </c>
       <c r="C3">
-        <v>0.0006306732627985137</v>
+        <v>0.0001301849549774341</v>
       </c>
       <c r="D3">
-        <v>0.006513003445992318</v>
+        <v>0.005650646918323966</v>
       </c>
       <c r="E3">
-        <v>0.0083886921140873</v>
+        <v>0.008375274494933352</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.455525622174766E-11</v>
+        <v>5.738750001259246E-14</v>
       </c>
       <c r="C4">
-        <v>0.0003368461994811561</v>
+        <v>0.0001176308004029253</v>
       </c>
       <c r="D4">
-        <v>0.005322594535634154</v>
+        <v>0.00471063984337027</v>
       </c>
       <c r="E4">
-        <v>0.006745337844781117</v>
+        <v>0.006754746205633251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.859886114084314E-17</v>
+        <v>2.655036418867232E-09</v>
       </c>
       <c r="D5">
-        <v>0.0003432694848831427</v>
+        <v>0.0002552879416942394</v>
       </c>
       <c r="E5">
-        <v>0.0005001255831081257</v>
+        <v>0.0005205069953698282</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004996343988088803</v>
+        <v>6.274753108837452E-06</v>
       </c>
       <c r="C2">
-        <v>0.0194402073165356</v>
+        <v>0.004777218731695482</v>
       </c>
       <c r="D2">
-        <v>0.7920825717866349</v>
+        <v>0.5852873017284498</v>
       </c>
       <c r="E2">
-        <v>1.035122838457668</v>
+        <v>0.7342234181682109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003689272420938101</v>
+        <v>4.265998591901206E-05</v>
       </c>
       <c r="C3">
-        <v>0.4894128527942485</v>
+        <v>0.01726122059679833</v>
       </c>
       <c r="D3">
-        <v>0.5565514789046994</v>
+        <v>0.4314739977014601</v>
       </c>
       <c r="E3">
-        <v>0.7760924535686274</v>
+        <v>0.5292569039985252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009318027231660879</v>
+        <v>0.0001264939349260171</v>
       </c>
       <c r="C4">
-        <v>0.1090581835713317</v>
+        <v>0.004648601452327738</v>
       </c>
       <c r="D4">
-        <v>0.6625270780929425</v>
+        <v>0.3635370532549198</v>
       </c>
       <c r="E4">
-        <v>0.8940617937696104</v>
+        <v>0.4609895213897682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003016841357489923</v>
+        <v>3.974642869529463E-05</v>
       </c>
       <c r="C5">
-        <v>0.07652694997609635</v>
+        <v>0.01017152216720051</v>
       </c>
       <c r="D5">
-        <v>0.6243607850761044</v>
+        <v>0.5292536818480308</v>
       </c>
       <c r="E5">
-        <v>0.8789148469914819</v>
+        <v>0.6059072426603161</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.341175675907166E-05</v>
+        <v>1.076099402252142E-06</v>
       </c>
       <c r="C2">
-        <v>0.001998293219214392</v>
+        <v>7.453705115974282E-05</v>
       </c>
       <c r="D2">
-        <v>0.02423778873971561</v>
+        <v>0.01585703061242156</v>
       </c>
       <c r="E2">
-        <v>0.02836977175650994</v>
+        <v>0.01666371100707123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.666419205255739E-05</v>
+        <v>1.148298763755546E-06</v>
       </c>
       <c r="C3">
-        <v>0.01821732615110078</v>
+        <v>0.0002477726001429727</v>
       </c>
       <c r="D3">
-        <v>0.01323147715383524</v>
+        <v>0.008711650735289463</v>
       </c>
       <c r="E3">
-        <v>0.01706756239850931</v>
+        <v>0.009403475543899196</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005273422179231309</v>
+        <v>7.353957242698485E-06</v>
       </c>
       <c r="C4">
-        <v>0.003785855127530832</v>
+        <v>6.997433578934436E-05</v>
       </c>
       <c r="D4">
-        <v>0.0178872485157633</v>
+        <v>0.009332746844457358</v>
       </c>
       <c r="E4">
-        <v>0.02365167495720378</v>
+        <v>0.01175525920959753</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002918342513006147</v>
+        <v>3.950110178780338E-06</v>
       </c>
       <c r="C5">
-        <v>0.004967583563784485</v>
+        <v>8.880409956795554E-05</v>
       </c>
       <c r="D5">
-        <v>0.02136331103838482</v>
+        <v>0.01528869999002913</v>
       </c>
       <c r="E5">
-        <v>0.02530940646039109</v>
+        <v>0.01410775496041511</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Min.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Lifetime/EOL_RIR_hist_Lifetime_Min.xlsx
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.45568428466758E-19</v>
       </c>
       <c r="C2">
-        <v>2.72967848032444E-06</v>
+        <v>3.234355465845293E-05</v>
       </c>
       <c r="D2">
-        <v>0.006425129170340081</v>
+        <v>0.007019255690660976</v>
       </c>
       <c r="E2">
-        <v>0.009981179422717998</v>
+        <v>0.009034683182445062</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.676266793030401E-12</v>
+        <v>1.573017879546552E-09</v>
       </c>
       <c r="C3">
-        <v>0.0001301849549774341</v>
+        <v>0.000548952861088679</v>
       </c>
       <c r="D3">
-        <v>0.005650646918323966</v>
+        <v>0.006513003445992318</v>
       </c>
       <c r="E3">
-        <v>0.008375274494933352</v>
+        <v>0.0083886921140873</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.738750001259246E-14</v>
+        <v>2.455525622174766E-11</v>
       </c>
       <c r="C4">
-        <v>0.0001176308004029253</v>
+        <v>0.0005091945878934708</v>
       </c>
       <c r="D4">
-        <v>0.00471063984337027</v>
+        <v>0.005322594535634154</v>
       </c>
       <c r="E4">
-        <v>0.006754746205633251</v>
+        <v>0.006745337844781117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.655036418867232E-09</v>
+        <v>1.125284018505872E-06</v>
       </c>
       <c r="D5">
-        <v>0.0002552879416942394</v>
+        <v>0.0003432694848831427</v>
       </c>
       <c r="E5">
-        <v>0.0005205069953698282</v>
+        <v>0.0005001255831081257</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.274753108837452E-06</v>
+        <v>0.0004996343988088803</v>
       </c>
       <c r="C2">
-        <v>0.004777218731695482</v>
+        <v>0.04114705065597703</v>
       </c>
       <c r="D2">
-        <v>0.5852873017284498</v>
+        <v>0.7920825717866349</v>
       </c>
       <c r="E2">
-        <v>0.7342234181682109</v>
+        <v>1.035122838457668</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.265998591901206E-05</v>
+        <v>0.003689272420938101</v>
       </c>
       <c r="C3">
-        <v>0.01726122059679833</v>
+        <v>0.04774564432274016</v>
       </c>
       <c r="D3">
-        <v>0.4314739977014601</v>
+        <v>0.5565514789046994</v>
       </c>
       <c r="E3">
-        <v>0.5292569039985252</v>
+        <v>0.7760924535686274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001264939349260171</v>
+        <v>0.009318027231660879</v>
       </c>
       <c r="C4">
-        <v>0.004648601452327738</v>
+        <v>0.03670670824608033</v>
       </c>
       <c r="D4">
-        <v>0.3635370532549198</v>
+        <v>0.6625270780929425</v>
       </c>
       <c r="E4">
-        <v>0.4609895213897682</v>
+        <v>0.8940617937696104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,16 +652,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.974642869529463E-05</v>
+        <v>0.003016841357489923</v>
       </c>
       <c r="C5">
-        <v>0.01017152216720051</v>
+        <v>0.03455053535924802</v>
       </c>
       <c r="D5">
-        <v>0.5292536818480308</v>
+        <v>0.6243607850761044</v>
       </c>
       <c r="E5">
-        <v>0.6059072426603161</v>
+        <v>0.8789148469914819</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.076099402252142E-06</v>
+        <v>8.341175675907166E-05</v>
       </c>
       <c r="C2">
-        <v>7.453705115974282E-05</v>
+        <v>0.001101398272791471</v>
       </c>
       <c r="D2">
-        <v>0.01585703061242156</v>
+        <v>0.02423778873971561</v>
       </c>
       <c r="E2">
-        <v>0.01666371100707123</v>
+        <v>0.02836977175650994</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.148298763755546E-06</v>
+        <v>9.666419205255739E-05</v>
       </c>
       <c r="C3">
-        <v>0.0002477726001429727</v>
+        <v>0.001041167508083666</v>
       </c>
       <c r="D3">
-        <v>0.008711650735289463</v>
+        <v>0.01323147715383524</v>
       </c>
       <c r="E3">
-        <v>0.009403475543899196</v>
+        <v>0.01706756239850931</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,16 +730,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.353957242698485E-06</v>
+        <v>0.0005273422179231309</v>
       </c>
       <c r="C4">
-        <v>6.997433578934436E-05</v>
+        <v>0.0009318616779647269</v>
       </c>
       <c r="D4">
-        <v>0.009332746844457358</v>
+        <v>0.0178872485157633</v>
       </c>
       <c r="E4">
-        <v>0.01175525920959753</v>
+        <v>0.02365167495720378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.950110178780338E-06</v>
+        <v>0.0002918342513006147</v>
       </c>
       <c r="C5">
-        <v>8.880409956795554E-05</v>
+        <v>0.00107866079942882</v>
       </c>
       <c r="D5">
-        <v>0.01528869999002913</v>
+        <v>0.02136331103838482</v>
       </c>
       <c r="E5">
-        <v>0.01410775496041511</v>
+        <v>0.02530940646039109</v>
       </c>
     </row>
   </sheetData>
